--- a/data/TPP.xlsx
+++ b/data/TPP.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TPP</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27801,6 +27801,7 @@
     <col min="28" max="28" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="18.5390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27934,6 +27935,9 @@
       <c r="AD11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AE11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28023,6 +28027,9 @@
       <c r="AD12" s="25" t="n">
         <v>4.71249971175E11</v>
       </c>
+      <c r="AE12" s="25" t="n">
+        <v>2.38834731727E11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28112,6 +28119,9 @@
       <c r="AD13" s="25" t="n">
         <v>4.38284883E8</v>
       </c>
+      <c r="AE13" s="25" t="n">
+        <v>1.76218414E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28201,6 +28211,9 @@
       <c r="AD14" s="25" t="n">
         <v>3.0811686292E10</v>
       </c>
+      <c r="AE14" s="25" t="n">
+        <v>3.358513313E9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28290,6 +28303,9 @@
       <c r="AD15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28379,6 +28395,9 @@
       <c r="AD16" s="25" t="n">
         <v>4.4E11</v>
       </c>
+      <c r="AE16" s="25" t="n">
+        <v>2.353E11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28468,6 +28487,9 @@
       <c r="AD17" s="25" t="n">
         <v>8.4638240905E10</v>
       </c>
+      <c r="AE17" s="25" t="n">
+        <v>8.3638240905E10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28557,6 +28579,9 @@
       <c r="AD18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28646,6 +28671,9 @@
       <c r="AD19" s="25" t="n">
         <v>8.4638240905E10</v>
       </c>
+      <c r="AE19" s="25" t="n">
+        <v>8.3638240905E10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28735,6 +28763,9 @@
       <c r="AD20" s="25" t="n">
         <v>8.4638240905E10</v>
       </c>
+      <c r="AE20" s="25" t="n">
+        <v>8.3638240905E10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28824,6 +28855,9 @@
       <c r="AD21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28913,6 +28947,9 @@
       <c r="AD22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29002,6 +29039,9 @@
       <c r="AD23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29091,6 +29131,9 @@
       <c r="AD24" s="25" t="n">
         <v>2.164732367E10</v>
       </c>
+      <c r="AE24" s="25" t="n">
+        <v>3.4439325551E10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29180,6 +29223,9 @@
       <c r="AD25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29269,6 +29315,9 @@
       <c r="AD26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29358,6 +29407,9 @@
       <c r="AD27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29447,6 +29499,9 @@
       <c r="AD28" s="25" t="n">
         <v>2.164732367E10</v>
       </c>
+      <c r="AE28" s="25" t="n">
+        <v>3.4439325551E10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29536,6 +29591,9 @@
       <c r="AD29" s="25" t="n">
         <v>4.91223791541E11</v>
       </c>
+      <c r="AE29" s="25" t="n">
+        <v>6.70419940543E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29625,6 +29683,9 @@
       <c r="AD30" s="25" t="n">
         <v>2.2370558156E10</v>
       </c>
+      <c r="AE30" s="25" t="n">
+        <v>1.6477550534E10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29714,6 +29775,9 @@
       <c r="AD31" s="25" t="n">
         <v>1.93951964155E11</v>
       </c>
+      <c r="AE31" s="25" t="n">
+        <v>2.6726014177E11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29803,6 +29867,9 @@
       <c r="AD32" s="25" t="n">
         <v>2.2901278141E10</v>
       </c>
+      <c r="AE32" s="25" t="n">
+        <v>3.5143206968E10</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29892,6 +29959,9 @@
       <c r="AD33" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE33" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29981,6 +30051,9 @@
       <c r="AD34" s="25" t="n">
         <v>7.8061820572E10</v>
       </c>
+      <c r="AE34" s="25" t="n">
+        <v>1.33837061291E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30070,6 +30143,9 @@
       <c r="AD35" s="25" t="n">
         <v>1.68959146986E11</v>
       </c>
+      <c r="AE35" s="25" t="n">
+        <v>2.10270326049E11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30159,6 +30235,9 @@
       <c r="AD36" s="25" t="n">
         <v>4.979023531E9</v>
       </c>
+      <c r="AE36" s="25" t="n">
+        <v>7.431653931E9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30248,6 +30327,9 @@
       <c r="AD37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30337,6 +30419,9 @@
       <c r="AD38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30426,6 +30511,9 @@
       <c r="AD39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30515,6 +30603,9 @@
       <c r="AD40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30604,6 +30695,9 @@
       <c r="AD41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30693,6 +30787,9 @@
       <c r="AD42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30782,6 +30879,9 @@
       <c r="AD43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -30871,6 +30971,9 @@
       <c r="AD44" s="25" t="n">
         <v>1.8672252635E10</v>
       </c>
+      <c r="AE44" s="25" t="n">
+        <v>2.1502635056E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -30960,6 +31063,9 @@
       <c r="AD45" s="25" t="n">
         <v>1.4061726751E10</v>
       </c>
+      <c r="AE45" s="25" t="n">
+        <v>1.4580197682E10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -31049,6 +31155,9 @@
       <c r="AD46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31138,6 +31247,9 @@
       <c r="AD47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -31227,6 +31339,9 @@
       <c r="AD48" s="25" t="n">
         <v>4.610525884E9</v>
       </c>
+      <c r="AE48" s="25" t="n">
+        <v>6.922437374E9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31316,6 +31431,9 @@
       <c r="AD49" s="25" t="n">
         <v>8.83174885612E11</v>
       </c>
+      <c r="AE49" s="25" t="n">
+        <v>9.03988981714E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31405,6 +31523,9 @@
       <c r="AD50" s="25" t="n">
         <v>8.42503203835E11</v>
       </c>
+      <c r="AE50" s="25" t="n">
+        <v>8.42503203835E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31494,6 +31615,9 @@
       <c r="AD51" s="25" t="n">
         <v>7.4444715077E10</v>
       </c>
+      <c r="AE51" s="25" t="n">
+        <v>9.5309218745E10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31583,6 +31707,9 @@
       <c r="AD52" s="25" t="n">
         <v>-3.37730333E10</v>
       </c>
+      <c r="AE52" s="25" t="n">
+        <v>-3.3823440866E10</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31672,6 +31799,9 @@
       <c r="AD53" s="25" t="n">
         <v>5.31056128062E11</v>
       </c>
+      <c r="AE53" s="25" t="n">
+        <v>5.56708399995E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -31761,6 +31891,9 @@
       <c r="AD54" s="25" t="n">
         <v>4.86652237613E11</v>
       </c>
+      <c r="AE54" s="25" t="n">
+        <v>4.86652237613E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -31850,6 +31983,9 @@
       <c r="AD55" s="25" t="n">
         <v>5.6754458782E10</v>
       </c>
+      <c r="AE55" s="25" t="n">
+        <v>8.2408410967E10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -31939,6 +32075,9 @@
       <c r="AD56" s="25" t="n">
         <v>-1.2350568333E10</v>
       </c>
+      <c r="AE56" s="25" t="n">
+        <v>-1.2352248585E10</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -32028,6 +32167,9 @@
       <c r="AD57" s="25" t="n">
         <v>2.00474690517E11</v>
       </c>
+      <c r="AE57" s="25" t="n">
+        <v>2.25053537462E11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -32117,6 +32259,9 @@
       <c r="AD58" s="25" t="n">
         <v>2.39652407375E11</v>
       </c>
+      <c r="AE58" s="25" t="n">
+        <v>2.39652407375E11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -32206,6 +32351,9 @@
       <c r="AD59" s="25" t="n">
         <v>1.3418581681E10</v>
       </c>
+      <c r="AE59" s="25" t="n">
+        <v>4.8762505937E10</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -32295,6 +32443,9 @@
       <c r="AD60" s="25" t="n">
         <v>-5.2596298539E10</v>
       </c>
+      <c r="AE60" s="25" t="n">
+        <v>-6.336137585E10</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -32384,6 +32535,9 @@
       <c r="AD61" s="25" t="n">
         <v>4.1210047464E10</v>
       </c>
+      <c r="AE61" s="25" t="n">
+        <v>4.3160353482E10</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -32473,6 +32627,9 @@
       <c r="AD62" s="25" t="n">
         <v>4.5929192263E10</v>
       </c>
+      <c r="AE62" s="25" t="n">
+        <v>4.5929192263E10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -32562,6 +32719,9 @@
       <c r="AD63" s="25" t="n">
         <v>1.5856402244E10</v>
       </c>
+      <c r="AE63" s="25" t="n">
+        <v>2.3546222345E10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -32651,6 +32811,9 @@
       <c r="AD64" s="25" t="n">
         <v>-2.0575547043E10</v>
       </c>
+      <c r="AE64" s="25" t="n">
+        <v>-2.6315061126E10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -32740,6 +32903,9 @@
       <c r="AD65" s="25" t="n">
         <v>1.4037025715E10</v>
       </c>
+      <c r="AE65" s="25" t="n">
+        <v>1.4037025715E10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -32829,6 +32995,9 @@
       <c r="AD66" s="25" t="n">
         <v>1.4037025715E10</v>
       </c>
+      <c r="AE66" s="25" t="n">
+        <v>1.4037025715E10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -32918,6 +33087,9 @@
       <c r="AD67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -33007,6 +33179,9 @@
       <c r="AD68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -33096,6 +33271,9 @@
       <c r="AD69" s="25" t="n">
         <v>8.523788694E9</v>
       </c>
+      <c r="AE69" s="25" t="n">
+        <v>8.888228877E9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -33185,6 +33363,9 @@
       <c r="AD70" s="25" t="n">
         <v>7.794908328E9</v>
       </c>
+      <c r="AE70" s="25" t="n">
+        <v>7.794908328E9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -33274,6 +33455,9 @@
       <c r="AD71" s="25" t="n">
         <v>7.28880366E8</v>
       </c>
+      <c r="AE71" s="25" t="n">
+        <v>1.093320549E9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -33363,6 +33547,9 @@
       <c r="AD72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -33452,6 +33639,9 @@
       <c r="AD73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -33541,6 +33731,9 @@
       <c r="AD74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -33630,6 +33823,9 @@
       <c r="AD75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -33719,6 +33915,9 @@
       <c r="AD76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -33808,6 +34007,9 @@
       <c r="AD77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -33897,6 +34099,9 @@
       <c r="AD78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -33986,6 +34191,9 @@
       <c r="AD79" s="25" t="n">
         <v>1.4177039361E12</v>
       </c>
+      <c r="AE79" s="25" t="n">
+        <v>1.399333583763E12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -34075,6 +34283,9 @@
       <c r="AD80" s="25" t="n">
         <v>1.287780594571E12</v>
       </c>
+      <c r="AE80" s="25" t="n">
+        <v>1.303527583442E12</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -34164,6 +34375,9 @@
       <c r="AD81" s="25" t="n">
         <v>1.29923341529E11</v>
       </c>
+      <c r="AE81" s="25" t="n">
+        <v>9.5806000321E10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -34253,6 +34467,9 @@
       <c r="AD82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -34342,6 +34559,9 @@
       <c r="AD83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -34431,6 +34651,9 @@
       <c r="AD84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -34520,6 +34743,9 @@
       <c r="AD85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -34609,6 +34835,9 @@
       <c r="AD86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -34698,6 +34927,9 @@
       <c r="AD87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -34787,6 +35019,9 @@
       <c r="AD88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -34876,6 +35111,9 @@
       <c r="AD89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -34965,6 +35203,9 @@
       <c r="AD90" s="25" t="n">
         <v>1.7651468588E10</v>
       </c>
+      <c r="AE90" s="25" t="n">
+        <v>2.6964390533E10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -35054,6 +35295,9 @@
       <c r="AD91" s="25" t="n">
         <v>6.450425009E9</v>
       </c>
+      <c r="AE91" s="25" t="n">
+        <v>7.31749198E9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -35143,6 +35387,9 @@
       <c r="AD92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -35232,6 +35479,9 @@
       <c r="AD93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -35321,6 +35571,9 @@
       <c r="AD94" s="25" t="n">
         <v>8.718027283E9</v>
       </c>
+      <c r="AE94" s="25" t="n">
+        <v>1.8303796563E10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -35410,6 +35663,9 @@
       <c r="AD95" s="25" t="n">
         <v>3.76365133E8</v>
       </c>
+      <c r="AE95" s="25" t="n">
+        <v>4.44858546E8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -35499,6 +35755,9 @@
       <c r="AD96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -35588,6 +35847,9 @@
       <c r="AD97" s="25" t="n">
         <v>3.79162567E8</v>
       </c>
+      <c r="AE97" s="25" t="n">
+        <v>8.98243444E8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -35677,6 +35939,9 @@
       <c r="AD98" s="25" t="n">
         <v>1.727488596E9</v>
       </c>
+      <c r="AE98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -35766,6 +36031,9 @@
       <c r="AD99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -35855,6 +36123,9 @@
       <c r="AD100" s="25" t="n">
         <v>5.0395214926E10</v>
       </c>
+      <c r="AE100" s="25" t="n">
+        <v>4.9693484223E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -35944,6 +36215,9 @@
       <c r="AD101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -36033,6 +36307,9 @@
       <c r="AD102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -36122,6 +36399,9 @@
       <c r="AD103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -36211,6 +36491,9 @@
       <c r="AD104" s="25" t="n">
         <v>5.0395214926E10</v>
       </c>
+      <c r="AE104" s="25" t="n">
+        <v>4.9693484223E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -36300,6 +36583,9 @@
       <c r="AD105" s="25" t="n">
         <v>1.028955954E10</v>
       </c>
+      <c r="AE105" s="25" t="n">
+        <v>6.883752265E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -36389,6 +36675,9 @@
       <c r="AD106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -36478,6 +36767,9 @@
       <c r="AD107" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE107" s="25" t="n">
+        <v>2.144996785E9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -36567,6 +36859,9 @@
       <c r="AD108" s="25" t="n">
         <v>5.509640496E9</v>
       </c>
+      <c r="AE108" s="25" t="n">
+        <v>1.747699059E9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -36656,6 +36951,9 @@
       <c r="AD109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -36745,6 +37043,9 @@
       <c r="AD110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -36834,6 +37135,9 @@
       <c r="AD111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -36923,6 +37227,9 @@
       <c r="AD112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -37012,6 +37319,9 @@
       <c r="AD113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -37101,6 +37411,9 @@
       <c r="AD114" s="25" t="n">
         <v>4.779919044E9</v>
       </c>
+      <c r="AE114" s="25" t="n">
+        <v>2.991056421E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -37190,6 +37503,9 @@
       <c r="AD115" s="25" t="n">
         <v>4.19463035904E11</v>
       </c>
+      <c r="AE115" s="25" t="n">
+        <v>4.3619173735E11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -37279,6 +37595,9 @@
       <c r="AD116" s="25" t="n">
         <v>3.77999334433E11</v>
       </c>
+      <c r="AE116" s="25" t="n">
+        <v>3.77999334433E11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -37368,6 +37687,9 @@
       <c r="AD117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -37457,6 +37779,9 @@
       <c r="AD118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -37546,6 +37871,9 @@
       <c r="AD119" s="25" t="n">
         <v>4.1463701471E10</v>
       </c>
+      <c r="AE119" s="25" t="n">
+        <v>5.8192402917E10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -37635,6 +37963,9 @@
       <c r="AD120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -37724,6 +38055,9 @@
       <c r="AD121" s="25" t="n">
         <v>4.5E11</v>
       </c>
+      <c r="AE121" s="25" t="n">
+        <v>4.5E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -37813,6 +38147,9 @@
       <c r="AD122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -37902,6 +38239,9 @@
       <c r="AD123" s="25" t="n">
         <v>4.5E11</v>
       </c>
+      <c r="AE123" s="25" t="n">
+        <v>4.5E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -37991,6 +38331,9 @@
       <c r="AD124" s="25" t="n">
         <v>8.6864731977E11</v>
       </c>
+      <c r="AE124" s="25" t="n">
+        <v>7.42440648529E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -38080,6 +38423,9 @@
       <c r="AD125" s="25" t="n">
         <v>8.6864731977E11</v>
       </c>
+      <c r="AE125" s="25" t="n">
+        <v>7.42440648529E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -38169,6 +38515,9 @@
       <c r="AD126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -38258,6 +38607,9 @@
       <c r="AD127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -38347,6 +38699,9 @@
       <c r="AD128" s="25" t="n">
         <v>9.517158551E9</v>
       </c>
+      <c r="AE128" s="25" t="n">
+        <v>4.566831371E9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -38436,6 +38791,9 @@
       <c r="AD129" s="25" t="n">
         <v>6.548589314E9</v>
       </c>
+      <c r="AE129" s="25" t="n">
+        <v>2.365143047E9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -38525,6 +38883,9 @@
       <c r="AD130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -38614,6 +38975,9 @@
       <c r="AD131" s="25" t="n">
         <v>2.968569237E9</v>
       </c>
+      <c r="AE131" s="25" t="n">
+        <v>2.201688324E9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -38703,6 +39067,9 @@
       <c r="AD132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -38792,6 +39159,9 @@
       <c r="AD133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -38881,6 +39251,9 @@
       <c r="AD134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -38970,6 +39343,9 @@
       <c r="AD135" s="25" t="n">
         <v>7.3412032729E11</v>
       </c>
+      <c r="AE135" s="25" t="n">
+        <v>5.83041241736E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -39059,6 +39435,9 @@
       <c r="AD136" s="25" t="n">
         <v>7.3412032729E11</v>
       </c>
+      <c r="AE136" s="25" t="n">
+        <v>5.83041241736E11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -39148,6 +39527,9 @@
       <c r="AD137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -39237,6 +39619,9 @@
       <c r="AD138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -39326,6 +39711,9 @@
       <c r="AD139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -39415,6 +39803,9 @@
       <c r="AD140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -39504,6 +39895,9 @@
       <c r="AD141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -39593,6 +39987,9 @@
       <c r="AD142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -39682,6 +40079,9 @@
       <c r="AD143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -39771,6 +40171,9 @@
       <c r="AD144" s="25" t="n">
         <v>1.1448016676E10</v>
       </c>
+      <c r="AE144" s="25" t="n">
+        <v>1.1254810081E10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -39860,6 +40263,9 @@
       <c r="AD145" s="25" t="n">
         <v>9.115232671E9</v>
       </c>
+      <c r="AE145" s="25" t="n">
+        <v>8.90666098E9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -39949,6 +40355,9 @@
       <c r="AD146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -40038,6 +40447,9 @@
       <c r="AD147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -40127,6 +40539,9 @@
       <c r="AD148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -40216,6 +40631,9 @@
       <c r="AD149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -40305,6 +40723,9 @@
       <c r="AD150" s="25" t="n">
         <v>2.329442877E9</v>
       </c>
+      <c r="AE150" s="25" t="n">
+        <v>2.014548593E9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -40394,6 +40815,9 @@
       <c r="AD151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -40483,6 +40907,9 @@
       <c r="AD152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -40572,6 +40999,9 @@
       <c r="AD153" s="25" t="n">
         <v>3341128.0</v>
       </c>
+      <c r="AE153" s="25" t="n">
+        <v>3.33600508E8</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -40661,6 +41091,9 @@
       <c r="AD154" s="25" t="n">
         <v>3.4957456554E10</v>
       </c>
+      <c r="AE154" s="25" t="n">
+        <v>3.1022425207E10</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -40750,6 +41183,9 @@
       <c r="AD155" s="25" t="n">
         <v>3.2489806646E10</v>
       </c>
+      <c r="AE155" s="25" t="n">
+        <v>2.8435223573E10</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -40839,6 +41275,9 @@
       <c r="AD156" s="25" t="n">
         <v>1.11661406E8</v>
       </c>
+      <c r="AE156" s="25" t="n">
+        <v>6.05504747E8</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -40928,6 +41367,9 @@
       <c r="AD157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -41017,6 +41459,9 @@
       <c r="AD158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -41106,6 +41551,9 @@
       <c r="AD159" s="25" t="n">
         <v>5.95299007E8</v>
       </c>
+      <c r="AE159" s="25" t="n">
+        <v>3.16713895E8</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -41195,6 +41643,9 @@
       <c r="AD160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -41284,6 +41735,9 @@
       <c r="AD161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -41373,6 +41827,9 @@
       <c r="AD162" s="25" t="n">
         <v>1.760689495E9</v>
       </c>
+      <c r="AE162" s="25" t="n">
+        <v>1.664982992E9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -41462,6 +41919,9 @@
       <c r="AD163" s="25" t="n">
         <v>8.050559268E11</v>
       </c>
+      <c r="AE163" s="25" t="n">
+        <v>6.70069680258E11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -41551,6 +42011,9 @@
       <c r="AD164" s="25" t="n">
         <v>5.95146194903E11</v>
       </c>
+      <c r="AE164" s="25" t="n">
+        <v>4.68871379829E11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -41640,6 +42103,9 @@
       <c r="AD165" s="25" t="n">
         <v>8.9989745462E10</v>
       </c>
+      <c r="AE165" s="25" t="n">
+        <v>8.7119505576E10</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -41729,6 +42195,9 @@
       <c r="AD166" s="25" t="n">
         <v>2.6417453534E10</v>
       </c>
+      <c r="AE166" s="25" t="n">
+        <v>2.8012044216E10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -41818,6 +42287,9 @@
       <c r="AD167" s="25" t="n">
         <v>8.373638652E10</v>
       </c>
+      <c r="AE167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -41906,6 +42378,9 @@
       </c>
       <c r="AD168" s="25" t="n">
         <v>9.766146381E9</v>
+      </c>
+      <c r="AE168" s="25" t="n">
+        <v>8.6066750637E10</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -41946,7 +42421,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:AD10"/>
+    <mergeCell ref="H10:AE10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/TPP.xlsx
+++ b/data/TPP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TPP</t>

--- a/data/TPP.xlsx
+++ b/data/TPP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TPP</t>

--- a/data/TPP.xlsx
+++ b/data/TPP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TPP</t>
